--- a/data/hotels_by_city/Houston/Houston_shard_62.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_62.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d1465047-Reviews-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Baytown.h2647850.Hotel-Information?chkin=7%2F12%2F2018&amp;chkout=7%2F13%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530208496798&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=8929d4fb-0ca5-4b95-a745-25cccb94f99c&amp;mctc=9&amp;exp_dp=99&amp;exp_ts=1530208497386&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,285 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r420693368-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1465047</t>
+  </si>
+  <si>
+    <t>420693368</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Perfect place</t>
+  </si>
+  <si>
+    <t>Candlewood suites is one of the perfect place to stay in this industrial town of Baytown. The rooms are neat and clean, well serviced. There's a kitchenette as well with utensils hotplate microwave toaster etc.The front desk is very cooperative and helpful. Mr Moumin goes out of the way to make your stay enjoying. There's also free laundry and small daily items are available on sale.Overall an excellent place to stay with huge parkings, walkway and swimming pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Candlewood suites is one of the perfect place to stay in this industrial town of Baytown. The rooms are neat and clean, well serviced. There's a kitchenette as well with utensils hotplate microwave toaster etc.The front desk is very cooperative and helpful. Mr Moumin goes out of the way to make your stay enjoying. There's also free laundry and small daily items are available on sale.Overall an excellent place to stay with huge parkings, walkway and swimming pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r386643426-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>386643426</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant surprise </t>
+  </si>
+  <si>
+    <t>This is a very good hotel if your looking for a  homely expierence.  The hotel staff is very friendly and willing to help you in any way they can. Each room has a kitchenette equipped with pots,pans, forks,and spoon. (Great feature if you get tired of eating out). The rooms are very clean and up to date. It feels like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>This is a very good hotel if your looking for a  homely expierence.  The hotel staff is very friendly and willing to help you in any way they can. Each room has a kitchenette equipped with pots,pans, forks,and spoon. (Great feature if you get tired of eating out). The rooms are very clean and up to date. It feels like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r270965412-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>270965412</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Great place when you need a place to stay.</t>
+  </si>
+  <si>
+    <t>I have taken a new position with a company in Baytown, and they put me up here while I searched for a place rent or buy. The room was clean and neat and the staff was friendly and helpful. If your passing through and are looking for more than just a hotel room, check them out. You won't be disappointed.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded May 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2015</t>
+  </si>
+  <si>
+    <t>I have taken a new position with a company in Baytown, and they put me up here while I searched for a place rent or buy. The room was clean and neat and the staff was friendly and helpful. If your passing through and are looking for more than just a hotel room, check them out. You won't be disappointed.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r224623869-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>224623869</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Always a great stay!</t>
+  </si>
+  <si>
+    <t>Have stayed here multiple times and never been disappointed. Hotel is always clean and a very professional staff. Mrs Amy at the front desk was very courteous and friendly. ..Thanks for the hospitality will be backMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Nicole G, Manager at Candlewood Suites Baytown, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here multiple times and never been disappointed. Hotel is always clean and a very professional staff. Mrs Amy at the front desk was very courteous and friendly. ..Thanks for the hospitality will be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r222663362-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>222663362</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks while working for company and the location is ideal for dining, entertainment, etc. Free laundry, Wifi, pool, grills, and other guests I met were quite friendly and always willing to engage in a conversation. Would definetly stay here again when I come back but for vacation next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Nicole G, Manager at Candlewood Suites Baytown, responded to this reviewResponded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks while working for company and the location is ideal for dining, entertainment, etc. Free laundry, Wifi, pool, grills, and other guests I met were quite friendly and always willing to engage in a conversation. Would definetly stay here again when I come back but for vacation next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r199767261-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>199767261</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Beauty in Baytown</t>
+  </si>
+  <si>
+    <t>We were delighted with the large spacious check in center with plenty of parking outside as we had a trailer. The front desk with Nichol was very accommodating. We were given a one bedroom with two TV's fold out couch, queen bed, full kitchen with glasses, plates, etc. The DVD's are free, and their is a free laundry. Lots of TV channels as they are on dish network. There is a huge work out room for upper and lower body. They offer complementary USA today. The hotel is brand new with granite in the rooms and beautifully decorate. It is located one mile from 1-10 in Baytown. There is free WIFi which I am currently using. In summary the rooms were clean, spacious, well equipped, and inviting.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Nancy P, Manager at Candlewood Suites Baytown, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>We were delighted with the large spacious check in center with plenty of parking outside as we had a trailer. The front desk with Nichol was very accommodating. We were given a one bedroom with two TV's fold out couch, queen bed, full kitchen with glasses, plates, etc. The DVD's are free, and their is a free laundry. Lots of TV channels as they are on dish network. There is a huge work out room for upper and lower body. They offer complementary USA today. The hotel is brand new with granite in the rooms and beautifully decorate. It is located one mile from 1-10 in Baytown. There is free WIFi which I am currently using. In summary the rooms were clean, spacious, well equipped, and inviting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r134216053-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>134216053</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay, although Garth Rd. is a "race track"</t>
+  </si>
+  <si>
+    <t>staff pretty nice, especially the girl that works 3-11...very nice hotel, clean, beds nice, pool was very suitable for my little ones. Although it closes at 9pm, kind of crappy when you are on vacation. But, beware of garth rd that it sits facing, it is wild and is a race track as if they need another one in baytown.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Sandi S, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded July 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2012</t>
+  </si>
+  <si>
+    <t>staff pretty nice, especially the girl that works 3-11...very nice hotel, clean, beds nice, pool was very suitable for my little ones. Although it closes at 9pm, kind of crappy when you are on vacation. But, beware of garth rd that it sits facing, it is wild and is a race track as if they need another one in baytown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r128342598-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>128342598</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Very good service and good facilities</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for past 5 months..this is a great place to stay long term /short term..good facilities and very friendly and caring staff..Right from the front desk to the Management staff..all are very friendly and helpful..I would definitely recommend this hotel..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>CandlewoodBaytown, Manager at Candlewood Suites Baytown, responded to this reviewResponded May 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2012</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for past 5 months..this is a great place to stay long term /short term..good facilities and very friendly and caring staff..Right from the front desk to the Management staff..all are very friendly and helpful..I would definitely recommend this hotel..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r124371081-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>124371081</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise!</t>
+  </si>
+  <si>
+    <t>I had initially wanted to stay at a different hotel but it was sold out due to a convention in town. So I decided to stay at the Candlewood Suites even though it was just for one night...wow! what a surprise. The room was kind of small (but adequate enough for me). Extremely clean, wood floors in the kitchen area and didn't have the "hotel" smell. It looked pretty new - though not sure how long the hotel has been around. The front desk staff was amazing - I checked in at 11 am and though my room wasn't ready, she was really pleasant. The evening staff was no different and the next morning as well. Keep up the good work Candlewood!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I had initially wanted to stay at a different hotel but it was sold out due to a convention in town. So I decided to stay at the Candlewood Suites even though it was just for one night...wow! what a surprise. The room was kind of small (but adequate enough for me). Extremely clean, wood floors in the kitchen area and didn't have the "hotel" smell. It looked pretty new - though not sure how long the hotel has been around. The front desk staff was amazing - I checked in at 11 am and though my room wasn't ready, she was really pleasant. The evening staff was no different and the next morning as well. Keep up the good work Candlewood!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r79452577-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>79452577</t>
+  </si>
+  <si>
+    <t>09/13/2010</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>The room or “suite” as it is referred to is very small, probably less than 150 square feet.  The worst part of the stay was that the air conditioner was programmed to shut off when there is no movement in the room – i.e. when you’re sleeping or sitting.  Overall, I would rate the Candlewood Suites in Baytown, TX as one of the smallest, least nice and least comfortable hotels I have stayed at.  As is common these days, althought internet is advertised, the connection speed is worse than dialup.  A total ripoff.  I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>CWSuitesbayotwn, General Manager at Candlewood Suites Baytown, responded to this reviewResponded September 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2010</t>
+  </si>
+  <si>
+    <t>The room or “suite” as it is referred to is very small, probably less than 150 square feet.  The worst part of the stay was that the air conditioner was programmed to shut off when there is no movement in the room – i.e. when you’re sleeping or sitting.  Overall, I would rate the Candlewood Suites in Baytown, TX as one of the smallest, least nice and least comfortable hotels I have stayed at.  As is common these days, althought internet is advertised, the connection speed is worse than dialup.  A total ripoff.  I will not stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +817,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +849,729 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_62.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_62.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,88 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r545136675-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1465047</t>
+  </si>
+  <si>
+    <t>545136675</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Not happy at all</t>
+  </si>
+  <si>
+    <t>Booked a room to attend a funeral here. Check in went so-so. Asked for a late checkout as Funeral was at 10 am followed by lunch at 11. Clerk said I can do 12:30 instead of noon. I said that will not work and was told 1 was best they could do. Get to room and furniture was old and surface of chair was peeling off and looked nasty. TV was very difficult to operate as well. Otherwise room was ok. Get back after the funeral the next day by 12:30 so we can hurry and pack up our two pets that travel with us and walk by front desk and manager and another employee see us walk by, same manager that I verified my 1 pm late checkout as I was trying to push it back further and was told no had to have room clean by 3 pm (get real). When I got to room the key was already canceled, she saw me walk by on my way up. I can back down and explained what happened when the manager snapped at my and was trying to blame it on the “system”. She continued to get irate with me as I was trying to figure out what happened now remember I just returned from a funeral and she knew this. As I am walking away she starts talking out loud saying very rude things about me so I...Booked a room to attend a funeral here. Check in went so-so. Asked for a late checkout as Funeral was at 10 am followed by lunch at 11. Clerk said I can do 12:30 instead of noon. I said that will not work and was told 1 was best they could do. Get to room and furniture was old and surface of chair was peeling off and looked nasty. TV was very difficult to operate as well. Otherwise room was ok. Get back after the funeral the next day by 12:30 so we can hurry and pack up our two pets that travel with us and walk by front desk and manager and another employee see us walk by, same manager that I verified my 1 pm late checkout as I was trying to push it back further and was told no had to have room clean by 3 pm (get real). When I got to room the key was already canceled, she saw me walk by on my way up. I can back down and explained what happened when the manager snapped at my and was trying to blame it on the “system”. She continued to get irate with me as I was trying to figure out what happened now remember I just returned from a funeral and she knew this. As I am walking away she starts talking out loud saying very rude things about me so I hollered back do to have a problem with me and she hid behind a wall. We got our stuff together and brought it out to find her sitting in her suv in a handicap parking spot with no handicap plate or hang tag. Needless to say I will not be back here. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Baytown, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Booked a room to attend a funeral here. Check in went so-so. Asked for a late checkout as Funeral was at 10 am followed by lunch at 11. Clerk said I can do 12:30 instead of noon. I said that will not work and was told 1 was best they could do. Get to room and furniture was old and surface of chair was peeling off and looked nasty. TV was very difficult to operate as well. Otherwise room was ok. Get back after the funeral the next day by 12:30 so we can hurry and pack up our two pets that travel with us and walk by front desk and manager and another employee see us walk by, same manager that I verified my 1 pm late checkout as I was trying to push it back further and was told no had to have room clean by 3 pm (get real). When I got to room the key was already canceled, she saw me walk by on my way up. I can back down and explained what happened when the manager snapped at my and was trying to blame it on the “system”. She continued to get irate with me as I was trying to figure out what happened now remember I just returned from a funeral and she knew this. As I am walking away she starts talking out loud saying very rude things about me so I...Booked a room to attend a funeral here. Check in went so-so. Asked for a late checkout as Funeral was at 10 am followed by lunch at 11. Clerk said I can do 12:30 instead of noon. I said that will not work and was told 1 was best they could do. Get to room and furniture was old and surface of chair was peeling off and looked nasty. TV was very difficult to operate as well. Otherwise room was ok. Get back after the funeral the next day by 12:30 so we can hurry and pack up our two pets that travel with us and walk by front desk and manager and another employee see us walk by, same manager that I verified my 1 pm late checkout as I was trying to push it back further and was told no had to have room clean by 3 pm (get real). When I got to room the key was already canceled, she saw me walk by on my way up. I can back down and explained what happened when the manager snapped at my and was trying to blame it on the “system”. She continued to get irate with me as I was trying to figure out what happened now remember I just returned from a funeral and she knew this. As I am walking away she starts talking out loud saying very rude things about me so I hollered back do to have a problem with me and she hid behind a wall. We got our stuff together and brought it out to find her sitting in her suv in a handicap parking spot with no handicap plate or hang tag. Needless to say I will not be back here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r441591504-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>441591504</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Decent if you are not that interested in decor etc</t>
+  </si>
+  <si>
+    <t>My husband and I, upon relocation to Houston, were put up in this hotel for 2 weeks. I would like to start by saying that the staff are incredibly polite, helpful and welcoming, including the house keeping, front desk etc. 
+The rooms are a little small but with a fully equipped kitchens including a dish washer and all utensils, they also provide dishwasher tablets etc, little things that make the stay much easier. The decor is a bit dated but if this is not an issue for you then that is no problem. 
+There is free washing/dryer services and a very small but acceptably equipped gym!
+There are 2 things that stop this from being a 4* for me and that is - 
+1) The AC unit in our room was fine, it did the job, but the noise it created is insane! Could hardly sleep  and if we were watching TV we had to put the volume extremely high to do so!! 
+2) The fire alarm went off one evening around 3 times, it only happened that one night however we got wind of the fire department saying that it was a dud fire alarm which the company have to sort themselves. It did not happen again so I am assuming the problem was resolved however I feel like fire safety is a priority as well as the fire stations time so it should not have happened in the...My husband and I, upon relocation to Houston, were put up in this hotel for 2 weeks. I would like to start by saying that the staff are incredibly polite, helpful and welcoming, including the house keeping, front desk etc. The rooms are a little small but with a fully equipped kitchens including a dish washer and all utensils, they also provide dishwasher tablets etc, little things that make the stay much easier. The decor is a bit dated but if this is not an issue for you then that is no problem. There is free washing/dryer services and a very small but acceptably equipped gym!There are 2 things that stop this from being a 4* for me and that is - 1) The AC unit in our room was fine, it did the job, but the noise it created is insane! Could hardly sleep  and if we were watching TV we had to put the volume extremely high to do so!! 2) The fire alarm went off one evening around 3 times, it only happened that one night however we got wind of the fire department saying that it was a dud fire alarm which the company have to sort themselves. It did not happen again so I am assuming the problem was resolved however I feel like fire safety is a priority as well as the fire stations time so it should not have happened in the first place.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I, upon relocation to Houston, were put up in this hotel for 2 weeks. I would like to start by saying that the staff are incredibly polite, helpful and welcoming, including the house keeping, front desk etc. 
+The rooms are a little small but with a fully equipped kitchens including a dish washer and all utensils, they also provide dishwasher tablets etc, little things that make the stay much easier. The decor is a bit dated but if this is not an issue for you then that is no problem. 
+There is free washing/dryer services and a very small but acceptably equipped gym!
+There are 2 things that stop this from being a 4* for me and that is - 
+1) The AC unit in our room was fine, it did the job, but the noise it created is insane! Could hardly sleep  and if we were watching TV we had to put the volume extremely high to do so!! 
+2) The fire alarm went off one evening around 3 times, it only happened that one night however we got wind of the fire department saying that it was a dud fire alarm which the company have to sort themselves. It did not happen again so I am assuming the problem was resolved however I feel like fire safety is a priority as well as the fire stations time so it should not have happened in the...My husband and I, upon relocation to Houston, were put up in this hotel for 2 weeks. I would like to start by saying that the staff are incredibly polite, helpful and welcoming, including the house keeping, front desk etc. The rooms are a little small but with a fully equipped kitchens including a dish washer and all utensils, they also provide dishwasher tablets etc, little things that make the stay much easier. The decor is a bit dated but if this is not an issue for you then that is no problem. There is free washing/dryer services and a very small but acceptably equipped gym!There are 2 things that stop this from being a 4* for me and that is - 1) The AC unit in our room was fine, it did the job, but the noise it created is insane! Could hardly sleep  and if we were watching TV we had to put the volume extremely high to do so!! 2) The fire alarm went off one evening around 3 times, it only happened that one night however we got wind of the fire department saying that it was a dud fire alarm which the company have to sort themselves. It did not happen again so I am assuming the problem was resolved however I feel like fire safety is a priority as well as the fire stations time so it should not have happened in the first place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r420693368-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>1465047</t>
-  </si>
-  <si>
     <t>420693368</t>
   </si>
   <si>
@@ -174,9 +244,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded September 27, 2016</t>
   </si>
   <si>
@@ -204,9 +271,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded June 30, 2016</t>
   </si>
   <si>
@@ -243,6 +307,57 @@
     <t>I have taken a new position with a company in Baytown, and they put me up here while I searched for a place rent or buy. The room was clean and neat and the staff was friendly and helpful. If your passing through and are looking for more than just a hotel room, check them out. You won't be disappointed.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r263666927-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>263666927</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Great location, pet friendly, very clean</t>
+  </si>
+  <si>
+    <t>My husband and I, including 2 dogs, were staying here just for the weekend. The location was great because it was fairly priced, close to shopping, restaurants, and I-10, which is hard to come by in most parts of Baytown since it is very industrial. The staff was extremely friendly, our rooms were very clean and well stocked, and the hotel was very quiet. I don't think we will return to Baytown any time soon, but if we do I have no hesitations about staying here or recommending it to other friends and family members. Overall, we were very pleased with our stay and would like to thank the wonderful hospitality of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I, including 2 dogs, were staying here just for the weekend. The location was great because it was fairly priced, close to shopping, restaurants, and I-10, which is hard to come by in most parts of Baytown since it is very industrial. The staff was extremely friendly, our rooms were very clean and well stocked, and the hotel was very quiet. I don't think we will return to Baytown any time soon, but if we do I have no hesitations about staying here or recommending it to other friends and family members. Overall, we were very pleased with our stay and would like to thank the wonderful hospitality of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r251369152-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>251369152</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Great stay, relaxing and comfortable</t>
+  </si>
+  <si>
+    <t>Good place to stay.  Convenient to I-10 and other places in downtown BT.  Garth Road is busy, and can be tough heading south (left out of hotel), but it's not terrible.  Room is clean and spacious - great for a solo traveler.  Bed is comfortable.  Shower has good pressure and hot.  Plenty of room in the bathroom.  Tv is good size for room, and the recliner is comfy. Good wifi service.  Fridge is cold.  Carpet is in good shape.  Certainly a place to return to.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Nicole G, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Good place to stay.  Convenient to I-10 and other places in downtown BT.  Garth Road is busy, and can be tough heading south (left out of hotel), but it's not terrible.  Room is clean and spacious - great for a solo traveler.  Bed is comfortable.  Shower has good pressure and hot.  Plenty of room in the bathroom.  Tv is good size for room, and the recliner is comfy. Good wifi service.  Fridge is cold.  Carpet is in good shape.  Certainly a place to return to.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r224623869-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -324,6 +439,59 @@
     <t>We were delighted with the large spacious check in center with plenty of parking outside as we had a trailer. The front desk with Nichol was very accommodating. We were given a one bedroom with two TV's fold out couch, queen bed, full kitchen with glasses, plates, etc. The DVD's are free, and their is a free laundry. Lots of TV channels as they are on dish network. There is a huge work out room for upper and lower body. They offer complementary USA today. The hotel is brand new with granite in the rooms and beautifully decorate. It is located one mile from 1-10 in Baytown. There is free WIFi which I am currently using. In summary the rooms were clean, spacious, well equipped, and inviting.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r198783282-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>198783282</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>LOVE THIS PLACE!!</t>
+  </si>
+  <si>
+    <t>Well let's start with what this place does offer. Not what it does not. Do NOT compare this to a Holiday Inn or Embassy Suites or one of the places that pamper you with fabulous breakfasts and all kinds of other features. That is not what Candlewood is about. This is a place to hang out for a longer time or a short time with great features at a great price. 
+This was actually our second choice but other options were full when we made reservations. However, it will likely be a first choice my next trip to this area!
+What this place offers:
+A well lit parking lot and friendly greeting as well as confirmation reminding us of our reservation. We were tired after a long day of air travel and plunging into work  and were really tired and weary travelers. 
+This place is like a haven. Everything works. The temp control is easily adjusted. There are free DVDS and CDS to check out. There is a VERY comfortable reclining chair. There are plugins everywhere for all your electronic needs. There is an ice-maker, a dishwasher, a fully stocked kitchen and a garbage disposal. There is also a small supply of detergent that is liquid and for the dishwasher as needed. There is a fabulous bathroom with a multi function shower head and an assist bar on the wall. I love this place. No there is no fancy breakfast...Well let's start with what this place does offer. Not what it does not. Do NOT compare this to a Holiday Inn or Embassy Suites or one of the places that pamper you with fabulous breakfasts and all kinds of other features. That is not what Candlewood is about. This is a place to hang out for a longer time or a short time with great features at a great price. This was actually our second choice but other options were full when we made reservations. However, it will likely be a first choice my next trip to this area!What this place offers:A well lit parking lot and friendly greeting as well as confirmation reminding us of our reservation. We were tired after a long day of air travel and plunging into work  and were really tired and weary travelers. This place is like a haven. Everything works. The temp control is easily adjusted. There are free DVDS and CDS to check out. There is a VERY comfortable reclining chair. There are plugins everywhere for all your electronic needs. There is an ice-maker, a dishwasher, a fully stocked kitchen and a garbage disposal. There is also a small supply of detergent that is liquid and for the dishwasher as needed. There is a fabulous bathroom with a multi function shower head and an assist bar on the wall. I love this place. No there is no fancy breakfast buffet but there is a full size refrigerator and a stove top and a microwave. There is also a beautiful pool and state of the art fitness center. Did I say that there is also a free laundry next to the fitness center? So....this way you can work out while you do laundry! You do pay for detergent but the washer and dryer services are no cost. The television seems to have more than an average amount of channels and services. There is free WIFI. Oh yeah....we are happy customers. Plus, there is easy freedom to get much needed rest as there is not daily room service although the staff would serve in a jiffy for any needs. Plus - we are in the economy room Thank you Candlewood!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Nancy P, Director of Sales at Candlewood Suites Baytown, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Well let's start with what this place does offer. Not what it does not. Do NOT compare this to a Holiday Inn or Embassy Suites or one of the places that pamper you with fabulous breakfasts and all kinds of other features. That is not what Candlewood is about. This is a place to hang out for a longer time or a short time with great features at a great price. 
+This was actually our second choice but other options were full when we made reservations. However, it will likely be a first choice my next trip to this area!
+What this place offers:
+A well lit parking lot and friendly greeting as well as confirmation reminding us of our reservation. We were tired after a long day of air travel and plunging into work  and were really tired and weary travelers. 
+This place is like a haven. Everything works. The temp control is easily adjusted. There are free DVDS and CDS to check out. There is a VERY comfortable reclining chair. There are plugins everywhere for all your electronic needs. There is an ice-maker, a dishwasher, a fully stocked kitchen and a garbage disposal. There is also a small supply of detergent that is liquid and for the dishwasher as needed. There is a fabulous bathroom with a multi function shower head and an assist bar on the wall. I love this place. No there is no fancy breakfast...Well let's start with what this place does offer. Not what it does not. Do NOT compare this to a Holiday Inn or Embassy Suites or one of the places that pamper you with fabulous breakfasts and all kinds of other features. That is not what Candlewood is about. This is a place to hang out for a longer time or a short time with great features at a great price. This was actually our second choice but other options were full when we made reservations. However, it will likely be a first choice my next trip to this area!What this place offers:A well lit parking lot and friendly greeting as well as confirmation reminding us of our reservation. We were tired after a long day of air travel and plunging into work  and were really tired and weary travelers. This place is like a haven. Everything works. The temp control is easily adjusted. There are free DVDS and CDS to check out. There is a VERY comfortable reclining chair. There are plugins everywhere for all your electronic needs. There is an ice-maker, a dishwasher, a fully stocked kitchen and a garbage disposal. There is also a small supply of detergent that is liquid and for the dishwasher as needed. There is a fabulous bathroom with a multi function shower head and an assist bar on the wall. I love this place. No there is no fancy breakfast buffet but there is a full size refrigerator and a stove top and a microwave. There is also a beautiful pool and state of the art fitness center. Did I say that there is also a free laundry next to the fitness center? So....this way you can work out while you do laundry! You do pay for detergent but the washer and dryer services are no cost. The television seems to have more than an average amount of channels and services. There is free WIFI. Oh yeah....we are happy customers. Plus, there is easy freedom to get much needed rest as there is not daily room service although the staff would serve in a jiffy for any needs. Plus - we are in the economy room Thank you Candlewood!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r192275056-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>192275056</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Rooms and Staff</t>
+  </si>
+  <si>
+    <t>The reviews on Tripadvisor helped me chose this hotel.  They did not steer me wrong.  I only stayed for 3 nights, but if I had to stay longer, I would definitely chose this hotel.  The rooms are very clean and the full size fridge is wonderful.  Room smelled good as well.  Staff made me feel at home.  I also enjoyed the store with all the different drinks and munchies.  It was larger than they usually are.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r134216053-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -397,6 +565,36 @@
   </si>
   <si>
     <t>I had initially wanted to stay at a different hotel but it was sold out due to a convention in town. So I decided to stay at the Candlewood Suites even though it was just for one night...wow! what a surprise. The room was kind of small (but adequate enough for me). Extremely clean, wood floors in the kitchen area and didn't have the "hotel" smell. It looked pretty new - though not sure how long the hotel has been around. The front desk staff was amazing - I checked in at 11 am and though my room wasn't ready, she was really pleasant. The evening staff was no different and the next morning as well. Keep up the good work Candlewood!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r123269430-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>123269430</t>
+  </si>
+  <si>
+    <t>01/18/2012</t>
+  </si>
+  <si>
+    <t>GREAT PLACE!!!!</t>
+  </si>
+  <si>
+    <t>i loved staying at this hotel it was GREAT. the hotel staff was very nice especially yhe front desk workers. the hotel was very clean and well kept. i would reccomened this hotel to anyone that loves to still feel at home even though they are not!</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r123269300-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>123269300</t>
+  </si>
+  <si>
+    <t>Wonderful Motel</t>
+  </si>
+  <si>
+    <t>My stay here was wonderful, the ladies at the front desk very polite and kind, the rooms was up to standard, and never had a problem while my visit, great location surrounding by Restaurant and the mall down is right down the street.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1465047-r79452577-Candlewood_Suites_Baytown-Baytown_Texas.html</t>
@@ -958,7 +1156,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1019,7 +1217,7 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
@@ -1029,10 +1227,16 @@
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1086,7 +1290,7 @@
         <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1202,24 +1406,20 @@
         <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1267,41 +1467,27 @@
         <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>99</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1317,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1326,53 +1512,43 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
         <v>62</v>
       </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
         <v>108</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>109</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1564,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1397,22 +1573,22 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>116</v>
       </c>
       <c r="O9" t="s">
         <v>62</v>
@@ -1427,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
         <v>117</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>118</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1449,7 +1625,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1458,38 +1634,32 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>122</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>124</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>125</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="n">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1497,10 +1667,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -1516,7 +1690,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1525,53 +1699,595 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59560</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
